--- a/Hodgin-Huxley model/Exp_IO_curves.xlsx
+++ b/Hodgin-Huxley model/Exp_IO_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mizbili\Desktop\projet homeostasie douleur\papier\Codes_papier\Hodgkin-Huxley model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B32CE-ABAB-4886-A5AE-F8D09E44216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1352F4C7-A9E6-4B24-B5C6-B05081280636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>Sem_SHAM_Male</t>
   </si>
   <si>
-    <t>Mean_LNIO_Male</t>
-  </si>
-  <si>
-    <t>Sem_LNIO_Male</t>
-  </si>
-  <si>
     <t>Mean_SHAM_Female</t>
   </si>
   <si>
     <t>Sem_SHAM_Female</t>
   </si>
   <si>
-    <t>Mean_LNIO_Female</t>
+    <t>Mean_IONL_Male</t>
   </si>
   <si>
-    <t>Sem_LNIO_Female</t>
+    <t>Sem_IONL_Male</t>
+  </si>
+  <si>
+    <t>Mean_IONL_Female</t>
+  </si>
+  <si>
+    <t>Sem_IONL_Female</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -409,16 +409,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
